--- a/Assets/Resources/gameData/charaData/template.xlsx
+++ b/Assets/Resources/gameData/charaData/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DeepSeaWar\Assets\Resources\gameData\charaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>出撃場所</t>
     <rPh sb="0" eb="2">
@@ -67,16 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃種類</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャラ名前</t>
     <rPh sb="3" eb="5">
       <t>ナマエ</t>
@@ -110,6 +100,81 @@
   </si>
   <si>
     <t>mendako.anim</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリオネ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーラカンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リュウグウノツカイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイオウグソクムシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オウムガイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホシザメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユウレイイカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリノアシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラブカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イガグリガニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃範囲</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,37 +508,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.58203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1"/>
-    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="21.69921875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.69921875" style="1"/>
+    <col min="8" max="8" width="8.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" style="1"/>
+    <col min="12" max="12" width="14.296875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -482,21 +546,27 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="1">
         <v>0.5</v>
@@ -510,18 +580,102 @@
       <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>